--- a/Data/EC/NIT-9000174478.xlsx
+++ b/Data/EC/NIT-9000174478.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D483099C-F89B-454D-A825-D84AB522A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E289CD-E175-42FC-825A-6D540C92FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5B65DC3-BEA1-44A9-A2A1-837C01F7235E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{502CE320-90E9-47CF-A8CC-F8A03E0B4190}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="152">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,421 +65,400 @@
     <t>CC</t>
   </si>
   <si>
-    <t>32936494</t>
-  </si>
-  <si>
-    <t>MIRLEY PATRICIA PANTOJA BAHOQUE</t>
+    <t>53115064</t>
+  </si>
+  <si>
+    <t>MABEL ROCIO GARCIA MAHECHA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1193552154</t>
+  </si>
+  <si>
+    <t>MELISSA CARDENAS TORRES</t>
+  </si>
+  <si>
+    <t>1041977279</t>
+  </si>
+  <si>
+    <t>BETSY LILIANA CABALLERO MAZABEL</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1047472507</t>
+  </si>
+  <si>
+    <t>WENDI PAOLA AVILA SABALZA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>14135498</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO FIGUEROA VALDERRAMA</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1098745574</t>
+  </si>
+  <si>
+    <t>LAUREN FERNANDA PINTO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>1143377427</t>
+  </si>
+  <si>
+    <t>MARIAM ALVAREZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1143352017</t>
+  </si>
+  <si>
+    <t>ELKIN MANUEL CARRASCAL BERTEL</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>13874597</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES PUERTO ANAYA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1047492537</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS NARVAEZ CORTES</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
   </si>
   <si>
     <t>2503</t>
   </si>
   <si>
-    <t>1047492537</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS NARVAEZ CORTES</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>1143352017</t>
-  </si>
-  <si>
-    <t>ELKIN MANUEL CARRASCAL BERTEL</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>45492192</t>
-  </si>
-  <si>
-    <t>ADALGIZA E LOPEZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>45536604</t>
-  </si>
-  <si>
-    <t>MARELVIS PAOLA MARRUGO ARNEDO</t>
-  </si>
-  <si>
-    <t>53115064</t>
-  </si>
-  <si>
-    <t>MABEL ROCIO GARCIA MAHECHA</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>13874597</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES PUERTO ANAYA</t>
-  </si>
-  <si>
-    <t>1143377427</t>
-  </si>
-  <si>
-    <t>MARIAM ALVAREZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>1098745574</t>
-  </si>
-  <si>
-    <t>LAUREN FERNANDA PINTO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1193552154</t>
-  </si>
-  <si>
-    <t>MELISSA CARDENAS TORRES</t>
-  </si>
-  <si>
-    <t>1041977279</t>
-  </si>
-  <si>
-    <t>BETSY LILIANA CABALLERO MAZABEL</t>
-  </si>
-  <si>
-    <t>1047472507</t>
-  </si>
-  <si>
-    <t>WENDI PAOLA AVILA SABALZA</t>
-  </si>
-  <si>
-    <t>14135498</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO FIGUEROA VALDERRAMA</t>
-  </si>
-  <si>
-    <t>1007986901</t>
-  </si>
-  <si>
-    <t>SHIRLY CAROLINA SANTIAGO VERGARA</t>
-  </si>
-  <si>
-    <t>1001937078</t>
-  </si>
-  <si>
-    <t>DIANA PATRICIA CAMPO GARCÃA</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>31577212</t>
+  </si>
+  <si>
+    <t>KAREN ALEXANDRA MAZUERA OLIVAR</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -578,7 +557,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -591,9 +572,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -793,23 +772,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,10 +816,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,7 +872,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AB0B14-2C01-FEC3-1121-E0BD650A0B9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4578C774-9091-9B0C-399D-5649798E3FA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,8 +1223,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB2FC23-7A9F-489C-B8D7-1A52668A7F3E}">
-  <dimension ref="B2:J251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A635AD0C-A359-465C-9204-224DF07F2288}">
+  <dimension ref="B2:J244"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1269,7 +1248,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1314,7 +1293,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1346,12 +1325,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12901724</v>
+        <v>13234901</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1362,17 +1341,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1399,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1422,10 +1401,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1898</v>
+        <v>53197</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1329924</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1436,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G17" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1459,19 +1438,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G18" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1482,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G19" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1505,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G20" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1528,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G21" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1551,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G22" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1574,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G23" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1597,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G24" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1620,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G25" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1643,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G26" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1666,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G27" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1689,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G28" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1712,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G29" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1735,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G30" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1758,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>126322</v>
+        <v>53197</v>
       </c>
       <c r="G31" s="18">
-        <v>3158050</v>
+        <v>1329924</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1781,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G32" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1804,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G33" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1827,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F34" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G34" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1850,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G35" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1873,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G36" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1896,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G37" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1919,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G38" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1942,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G39" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1965,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G40" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1988,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G41" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2011,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G42" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2034,19 +2013,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G43" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2057,19 +2036,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G44" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2080,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G45" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2103,19 +2082,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G46" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2126,19 +2105,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G47" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2149,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G48" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2172,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G49" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2195,19 +2174,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G50" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2218,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G51" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2241,19 +2220,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G52" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2264,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G53" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2287,19 +2266,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>52222</v>
+        <v>53197</v>
       </c>
       <c r="G54" s="18">
-        <v>1305542</v>
+        <v>1329924</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2310,16 +2289,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F55" s="18">
-        <v>1898</v>
+        <v>32021</v>
       </c>
       <c r="G55" s="18">
         <v>1423500</v>
@@ -2333,19 +2312,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>56940</v>
+        <v>32021</v>
       </c>
       <c r="G56" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2356,13 +2335,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>53197</v>
@@ -2379,19 +2358,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2402,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G59" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2425,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>53197</v>
@@ -2448,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2471,19 +2450,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F62" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2494,19 +2473,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F63" s="18">
-        <v>53197</v>
+        <v>28708</v>
       </c>
       <c r="G63" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2517,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F64" s="18">
         <v>53197</v>
@@ -2540,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F65" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G65" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2563,19 +2542,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G66" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2586,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G67" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2609,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
         <v>53197</v>
@@ -2632,19 +2611,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G69" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2655,19 +2634,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F70" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G70" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2678,19 +2657,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F71" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G71" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2701,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" s="18">
         <v>53197</v>
@@ -2724,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F73" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G73" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2747,19 +2726,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F74" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G74" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2770,19 +2749,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F75" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G75" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2793,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F76" s="18">
         <v>53197</v>
@@ -2816,19 +2795,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F77" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G77" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2839,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F78" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G78" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2862,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F79" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G79" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2885,13 +2864,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F80" s="18">
         <v>53197</v>
@@ -2908,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F81" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G81" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2931,19 +2910,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F82" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G82" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2954,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F83" s="18">
         <v>53197</v>
@@ -2977,19 +2956,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F84" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G84" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3000,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F85" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G85" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3023,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F86" s="18">
         <v>53197</v>
@@ -3046,19 +3025,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F87" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G87" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3069,19 +3048,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F88" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G88" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3092,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F89" s="18">
         <v>53197</v>
@@ -3115,19 +3094,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F90" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G90" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3138,19 +3117,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F91" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G91" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3161,13 +3140,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F92" s="18">
         <v>53197</v>
@@ -3184,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G93" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3207,19 +3186,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F94" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G94" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3230,13 +3209,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F95" s="18">
         <v>53197</v>
@@ -3253,19 +3232,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F96" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G96" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3276,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F97" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G97" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3299,13 +3278,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F98" s="18">
         <v>53197</v>
@@ -3322,19 +3301,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F99" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G99" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3345,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F100" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G100" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3368,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F101" s="18">
-        <v>53197</v>
+        <v>92000</v>
       </c>
       <c r="G101" s="18">
-        <v>1329924</v>
+        <v>2300000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3391,13 +3370,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F102" s="18">
         <v>53197</v>
@@ -3414,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F103" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G103" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3437,19 +3416,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F104" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G104" s="18">
-        <v>1329924</v>
+        <v>828116</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3460,19 +3439,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F105" s="18">
-        <v>53197</v>
+        <v>92000</v>
       </c>
       <c r="G105" s="18">
-        <v>1329924</v>
+        <v>2300000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3483,13 +3462,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F106" s="18">
         <v>53197</v>
@@ -3506,19 +3485,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F107" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G107" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3529,19 +3508,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F108" s="18">
-        <v>53197</v>
+        <v>92000</v>
       </c>
       <c r="G108" s="18">
-        <v>1329924</v>
+        <v>2300000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3552,13 +3531,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F109" s="18">
         <v>53197</v>
@@ -3575,19 +3554,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F110" s="18">
-        <v>53197</v>
+        <v>20028</v>
       </c>
       <c r="G110" s="18">
-        <v>1329924</v>
+        <v>1072963</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3598,19 +3577,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F111" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G111" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3621,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F112" s="18">
-        <v>53197</v>
+        <v>92000</v>
       </c>
       <c r="G112" s="18">
-        <v>1329924</v>
+        <v>2300000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3644,13 +3623,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F113" s="18">
         <v>53197</v>
@@ -3667,19 +3646,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F114" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G114" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3690,19 +3669,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F115" s="18">
-        <v>53197</v>
+        <v>92000</v>
       </c>
       <c r="G115" s="18">
-        <v>1329924</v>
+        <v>2300000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3713,13 +3692,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F116" s="18">
         <v>53197</v>
@@ -3736,19 +3715,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F117" s="18">
-        <v>53197</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>1329924</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3759,19 +3738,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F118" s="18">
-        <v>53197</v>
+        <v>33125</v>
       </c>
       <c r="G118" s="18">
-        <v>1329924</v>
+        <v>1423500</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3782,19 +3761,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F119" s="18">
-        <v>53197</v>
+        <v>92000</v>
       </c>
       <c r="G119" s="18">
-        <v>1329924</v>
+        <v>2300000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3805,13 +3784,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F120" s="18">
         <v>53197</v>
@@ -3828,19 +3807,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F121" s="18">
-        <v>36737</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>19680400</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3851,19 +3830,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F122" s="18">
-        <v>551051</v>
+        <v>33125</v>
       </c>
       <c r="G122" s="18">
-        <v>19680400</v>
+        <v>1423500</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3874,19 +3853,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F123" s="18">
-        <v>551051</v>
+        <v>92000</v>
       </c>
       <c r="G123" s="18">
-        <v>19680400</v>
+        <v>2300000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3897,19 +3876,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>53197</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>1329924</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3920,13 +3899,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3943,19 +3922,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3966,19 +3945,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3989,19 +3968,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>53197</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>1329924</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4012,13 +3991,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -4035,19 +4014,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4058,19 +4037,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>53197</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>1329924</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4081,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4104,19 +4083,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4127,19 +4106,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>53197</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>1329924</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4150,13 +4129,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4173,19 +4152,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4196,19 +4175,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>53197</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>1329924</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4219,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4242,19 +4221,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4265,19 +4244,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>53197</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>1329924</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4288,13 +4267,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4311,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4334,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4357,19 +4336,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4380,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4403,19 +4382,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4426,13 +4405,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4449,19 +4428,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4472,13 +4451,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4495,19 +4474,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4518,13 +4497,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4541,19 +4520,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4564,13 +4543,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4587,19 +4566,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>92000</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>2300000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4610,13 +4589,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4633,13 +4612,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4656,13 +4635,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4679,13 +4658,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4702,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4725,13 +4704,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4748,13 +4727,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4771,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4794,13 +4773,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4817,13 +4796,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4840,13 +4819,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4863,13 +4842,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4886,13 +4865,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4909,13 +4888,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4932,13 +4911,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4955,13 +4934,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4978,19 +4957,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="E171" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E171" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>52222</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>1305542</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -5001,13 +4980,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D172" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -5024,19 +5003,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D173" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="E173" s="16" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F173" s="18">
-        <v>31249</v>
+        <v>52222</v>
       </c>
       <c r="G173" s="18">
-        <v>781242</v>
+        <v>1305542</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5047,13 +5026,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -5070,19 +5049,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D175" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="E175" s="16" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>52222</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>1305542</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5093,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5116,19 +5095,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F177" s="18">
-        <v>20028</v>
+        <v>52222</v>
       </c>
       <c r="G177" s="18">
-        <v>1072963</v>
+        <v>1305542</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5139,19 +5118,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F178" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5162,19 +5141,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F179" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G179" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5185,19 +5164,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F180" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5208,19 +5187,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F181" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G181" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5231,19 +5210,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F182" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5254,19 +5233,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F183" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G183" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5277,19 +5256,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F184" s="18">
-        <v>33125</v>
+        <v>551051</v>
       </c>
       <c r="G184" s="18">
-        <v>1300000</v>
+        <v>19680400</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5300,19 +5279,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F185" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5323,19 +5302,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F186" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G186" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5346,19 +5325,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F187" s="18">
-        <v>33125</v>
+        <v>551051</v>
       </c>
       <c r="G187" s="18">
-        <v>1300000</v>
+        <v>19680400</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5369,19 +5348,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F188" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5392,19 +5371,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F189" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G189" s="18">
-        <v>1300000</v>
+        <v>3158050</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5415,19 +5394,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="F190" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G190" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5438,19 +5417,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F191" s="18">
-        <v>33125</v>
+        <v>36737</v>
       </c>
       <c r="G191" s="18">
-        <v>1300000</v>
+        <v>19680400</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5461,19 +5440,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F192" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5484,19 +5463,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F193" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G193" s="18">
-        <v>1300000</v>
+        <v>3158050</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5507,19 +5486,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F194" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G194" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5530,19 +5509,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="F195" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5553,19 +5532,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="F196" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G196" s="18">
-        <v>1300000</v>
+        <v>3158050</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5576,19 +5555,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="F197" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G197" s="18">
-        <v>1300000</v>
+        <v>1305542</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5599,19 +5578,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="F198" s="18">
-        <v>32021</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5622,19 +5601,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="F199" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G199" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5645,19 +5624,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F200" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G200" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5668,19 +5647,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F201" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5691,19 +5670,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F202" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G202" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5714,19 +5693,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F203" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G203" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5737,19 +5716,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F204" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5760,19 +5739,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="F205" s="18">
-        <v>32021</v>
+        <v>126322</v>
       </c>
       <c r="G205" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5783,19 +5762,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="F206" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G206" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5806,19 +5785,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F207" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5829,19 +5808,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F208" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G208" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5852,19 +5831,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F209" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G209" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5875,19 +5854,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F210" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5898,19 +5877,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F211" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G211" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5921,19 +5900,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F212" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G212" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5944,19 +5923,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F213" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5967,19 +5946,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F214" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G214" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5990,19 +5969,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="F215" s="18">
-        <v>33125</v>
+        <v>52222</v>
       </c>
       <c r="G215" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6013,19 +5992,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F216" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6036,19 +6015,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F217" s="18">
-        <v>33125</v>
+        <v>126322</v>
       </c>
       <c r="G217" s="18">
-        <v>828116</v>
+        <v>3158050</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6059,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F218" s="18">
-        <v>28708</v>
+        <v>52222</v>
       </c>
       <c r="G218" s="18">
-        <v>828116</v>
+        <v>1305542</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6082,19 +6061,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F219" s="18">
-        <v>92000</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>2300000</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6105,19 +6084,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F220" s="18">
-        <v>92000</v>
+        <v>126322</v>
       </c>
       <c r="G220" s="18">
-        <v>2300000</v>
+        <v>3158050</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6128,19 +6107,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F221" s="18">
-        <v>92000</v>
+        <v>52222</v>
       </c>
       <c r="G221" s="18">
-        <v>2300000</v>
+        <v>1305542</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6151,19 +6130,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F222" s="18">
-        <v>92000</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
-        <v>2300000</v>
+        <v>781242</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6174,19 +6153,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F223" s="18">
-        <v>92000</v>
+        <v>126322</v>
       </c>
       <c r="G223" s="18">
-        <v>2300000</v>
+        <v>3158050</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6197,19 +6176,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F224" s="18">
-        <v>92000</v>
+        <v>52222</v>
       </c>
       <c r="G224" s="18">
-        <v>2300000</v>
+        <v>1305542</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6220,19 +6199,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F225" s="18">
-        <v>92000</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>2300000</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6243,19 +6222,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F226" s="18">
-        <v>92000</v>
+        <v>126322</v>
       </c>
       <c r="G226" s="18">
-        <v>2300000</v>
+        <v>3158050</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6266,19 +6245,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F227" s="18">
-        <v>92000</v>
+        <v>52222</v>
       </c>
       <c r="G227" s="18">
-        <v>2300000</v>
+        <v>1305542</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6289,19 +6268,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F228" s="18">
-        <v>92000</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>2300000</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6312,19 +6291,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="F229" s="18">
-        <v>92000</v>
+        <v>126322</v>
       </c>
       <c r="G229" s="18">
-        <v>2300000</v>
+        <v>3158050</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6335,19 +6314,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F230" s="18">
-        <v>92000</v>
+        <v>52222</v>
       </c>
       <c r="G230" s="18">
-        <v>2300000</v>
+        <v>1305542</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6358,19 +6337,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="F231" s="18">
-        <v>92000</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>2300000</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6381,19 +6360,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F232" s="18">
-        <v>92000</v>
+        <v>126322</v>
       </c>
       <c r="G232" s="18">
-        <v>2300000</v>
+        <v>3158050</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6404,19 +6383,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F233" s="18">
-        <v>92000</v>
+        <v>52222</v>
       </c>
       <c r="G233" s="18">
-        <v>2300000</v>
+        <v>1305542</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6427,19 +6406,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F234" s="18">
-        <v>92000</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>2300000</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6450,19 +6429,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F235" s="18">
-        <v>92000</v>
+        <v>126322</v>
       </c>
       <c r="G235" s="18">
-        <v>2300000</v>
+        <v>3158050</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6473,19 +6452,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F236" s="18">
-        <v>92000</v>
+        <v>52222</v>
       </c>
       <c r="G236" s="18">
-        <v>2300000</v>
+        <v>1305542</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6496,236 +6475,75 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F237" s="18">
-        <v>92000</v>
+        <v>610000</v>
       </c>
       <c r="G237" s="18">
-        <v>2300000</v>
+        <v>15250000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
       <c r="J237" s="20"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D238" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F238" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G238" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F239" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G239" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G240" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F241" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G241" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B242" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F242" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G242" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="B238" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F238" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G238" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H238" s="25"/>
+      <c r="I238" s="25"/>
+      <c r="J238" s="26"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B243" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F243" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G243" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="B243" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C243" s="32"/>
+      <c r="H243" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B244" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F244" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G244" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B245" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D245" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E245" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F245" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G245" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H245" s="25"/>
-      <c r="I245" s="25"/>
-      <c r="J245" s="26"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C250" s="32"/>
-      <c r="H250" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B251" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C251" s="32"/>
-      <c r="H251" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
+      <c r="B244" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C244" s="32"/>
+      <c r="H244" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="H251:J251"/>
-    <mergeCell ref="H250:J250"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="H244:J244"/>
+    <mergeCell ref="H243:J243"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
